--- a/ProductMatch/CMR/ProductMatch_2016.xlsx
+++ b/ProductMatch/CMR/ProductMatch_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\CMR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD4BD61-E67A-49A1-85DB-671C79815431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A622AC4-5A0E-4251-B6C0-EE9E07633DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD534AA4-0BC8-403B-8E04-7BEB3ECF13A7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>Produits de l'agriculture</t>
   </si>
@@ -291,14 +291,25 @@
   </si>
   <si>
     <t>81; 82; 83; 85; 86; 88; 89</t>
+  </si>
+  <si>
+    <t>CPC21Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -326,8 +337,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,26 +654,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B343F-A27D-422B-BD7C-BB752812D466}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -672,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -683,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -694,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -705,7 +723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -716,7 +734,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -727,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -738,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -749,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -760,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -771,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -782,7 +800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -793,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -804,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -815,7 +833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
